--- a/Database/DataDictionary.xlsx
+++ b/Database/DataDictionary.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasspencer/Desktop/GithubRepos/isdp2025_thomas_spencer/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05781A32-285B-CA48-9001-37D903B76710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C275C8B0-C407-9944-95B2-C326FAD7A8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44820" yWindow="-7340" windowWidth="23040" windowHeight="40460" xr2:uid="{1AEB5438-39B3-B849-AD76-4A22118BF9D8}"/>
+    <workbookView xWindow="44840" yWindow="-7340" windowWidth="23040" windowHeight="40460" xr2:uid="{1AEB5438-39B3-B849-AD76-4A22118BF9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$167</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="293">
   <si>
     <t>Column Name</t>
   </si>
@@ -912,13 +915,16 @@
   </si>
   <si>
     <t>Used for usual deliveries</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -928,7 +934,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -954,407 +966,1816 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="128">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1371,8 +2792,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC17E41-B180-C243-A89E-1BF6C0E28045}" name="Table1" displayName="Table1" ref="A2:F4" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="A2:F4" xr:uid="{2FC17E41-B180-C243-A89E-1BF6C0E28045}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC17E41-B180-C243-A89E-1BF6C0E28045}" name="Table1" displayName="Table1" ref="A4:F6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+  <autoFilter ref="A4:F6" xr:uid="{2FC17E41-B180-C243-A89E-1BF6C0E28045}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6F053D18-707E-EF43-BD2B-06939D10C667}" name="Column Name" dataDxfId="127"/>
     <tableColumn id="2" xr3:uid="{6B5C063F-1410-3F4A-8322-DB639BFCABE6}" name="Data Type" dataDxfId="126"/>
@@ -1386,8 +2807,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EC981042-B043-514E-80C0-E040C253021D}" name="Table21" displayName="Table21" ref="A15:F27" totalsRowShown="0" headerRowDxfId="48" dataDxfId="49">
-  <autoFilter ref="A15:F27" xr:uid="{EC981042-B043-514E-80C0-E040C253021D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EC981042-B043-514E-80C0-E040C253021D}" name="Table21" displayName="Table21" ref="A17:F29" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A17:F29" xr:uid="{EC981042-B043-514E-80C0-E040C253021D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{943EFC8C-7074-5B44-BE7A-BD5845C5EB65}" name="Column Name" dataDxfId="55"/>
     <tableColumn id="2" xr3:uid="{E28AD6A9-AC1E-9F44-B6F0-243CC9209DB8}" name="Data Type" dataDxfId="54"/>
@@ -1401,8 +2822,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{174F4E38-32AF-0D4D-82DD-3C4D0C2844D9}" name="Table22" displayName="Table22" ref="A44:F51" totalsRowShown="0" headerRowDxfId="40" dataDxfId="41">
-  <autoFilter ref="A44:F51" xr:uid="{174F4E38-32AF-0D4D-82DD-3C4D0C2844D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{174F4E38-32AF-0D4D-82DD-3C4D0C2844D9}" name="Table22" displayName="Table22" ref="A46:F53" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A46:F53" xr:uid="{174F4E38-32AF-0D4D-82DD-3C4D0C2844D9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{48AD9E01-4DBF-EB4F-82B2-3E478228B22F}" name="Column Name" dataDxfId="47"/>
     <tableColumn id="2" xr3:uid="{2C8272A8-DDC2-4B4A-89A9-EFE8B2AB882B}" name="Data Type" dataDxfId="46"/>
@@ -1416,8 +2837,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{1CB73CE9-CEAB-2248-8BB4-51B590D57A6B}" name="Table23" displayName="Table23" ref="A54:F66" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
-  <autoFilter ref="A54:F66" xr:uid="{1CB73CE9-CEAB-2248-8BB4-51B590D57A6B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{1CB73CE9-CEAB-2248-8BB4-51B590D57A6B}" name="Table23" displayName="Table23" ref="A56:F68" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A56:F68" xr:uid="{1CB73CE9-CEAB-2248-8BB4-51B590D57A6B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{420026BE-566A-1A49-BFA2-740575E0D2ED}" name="Column Name" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{7EE6E555-1B18-9148-8F6B-6704E94A8EDC}" name="Data Type" dataDxfId="38"/>
@@ -1431,8 +2852,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{ADCE926E-ED30-9B40-A7A0-34A11CC88EE9}" name="Table24" displayName="Table24" ref="A98:F110" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
-  <autoFilter ref="A98:F110" xr:uid="{ADCE926E-ED30-9B40-A7A0-34A11CC88EE9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{ADCE926E-ED30-9B40-A7A0-34A11CC88EE9}" name="Table24" displayName="Table24" ref="A100:F112" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A100:F112" xr:uid="{ADCE926E-ED30-9B40-A7A0-34A11CC88EE9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DE716773-B0F9-E443-A03B-382F25901448}" name="Column Name" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{E180BCD6-1DDB-044A-92D6-5888DAC900DB}" name="Data Type" dataDxfId="30"/>
@@ -1446,8 +2867,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EA24ACA-43C0-7543-8B98-85C0F7803EB6}" name="Table25" displayName="Table25" ref="A113:F125" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
-  <autoFilter ref="A113:F125" xr:uid="{7EA24ACA-43C0-7543-8B98-85C0F7803EB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EA24ACA-43C0-7543-8B98-85C0F7803EB6}" name="Table25" displayName="Table25" ref="A115:F127" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A115:F127" xr:uid="{7EA24ACA-43C0-7543-8B98-85C0F7803EB6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1D904DB7-62AC-A349-8DAD-4174FF1BBAEE}" name="Column Name" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{AC853741-5302-6E4C-B2F3-E72C16A4CED6}" name="Data Type" dataDxfId="22"/>
@@ -1461,8 +2882,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{8B02D769-A9D5-E24A-808B-A80554BA1ADB}" name="Table26" displayName="Table26" ref="A128:F138" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
-  <autoFilter ref="A128:F138" xr:uid="{8B02D769-A9D5-E24A-808B-A80554BA1ADB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{8B02D769-A9D5-E24A-808B-A80554BA1ADB}" name="Table26" displayName="Table26" ref="A130:F140" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A130:F140" xr:uid="{8B02D769-A9D5-E24A-808B-A80554BA1ADB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BAFC7A6E-3699-BA4D-9315-530C70B0F668}" name="Column Name" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{F7FDD74A-5A0B-404F-ABD2-A96A13ADFBBB}" name="Data Type" dataDxfId="14"/>
@@ -1476,8 +2897,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{D0032BB2-0965-3E49-89E6-90FD134727A8}" name="Table27" displayName="Table27" ref="A141:F145" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A141:F145" xr:uid="{D0032BB2-0965-3E49-89E6-90FD134727A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{D0032BB2-0965-3E49-89E6-90FD134727A8}" name="Table27" displayName="Table27" ref="A143:F147" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A143:F147" xr:uid="{D0032BB2-0965-3E49-89E6-90FD134727A8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A68E77F1-2F73-AC42-A68C-3F2B6C6CF5F0}" name="Column Name" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{BFAE7F81-2441-CB4F-9489-B7DDF8A251DB}" name="Data Type" dataDxfId="6"/>
@@ -1491,8 +2912,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{31EC6127-4F92-C147-B11E-5716DA6CAF50}" name="Table7" displayName="Table7" ref="A69:F72" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A69:F72" xr:uid="{31EC6127-4F92-C147-B11E-5716DA6CAF50}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{31EC6127-4F92-C147-B11E-5716DA6CAF50}" name="Table7" displayName="Table7" ref="A71:F74" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="A71:F74" xr:uid="{31EC6127-4F92-C147-B11E-5716DA6CAF50}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{827E0BFD-7749-D84D-8524-4427CD847945}" name="Column Name" dataDxfId="119"/>
     <tableColumn id="2" xr3:uid="{AE3F0989-61CB-C542-819C-9C708E4B758E}" name="Data Type" dataDxfId="118"/>
@@ -1506,8 +2927,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{135114C5-12BF-EA4B-B742-7AAAD7429F3B}" name="Table8" displayName="Table8" ref="A75:F79" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
-  <autoFilter ref="A75:F79" xr:uid="{135114C5-12BF-EA4B-B742-7AAAD7429F3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{135114C5-12BF-EA4B-B742-7AAAD7429F3B}" name="Table8" displayName="Table8" ref="A77:F81" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+  <autoFilter ref="A77:F81" xr:uid="{135114C5-12BF-EA4B-B742-7AAAD7429F3B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6D70FC7A-3AB4-5249-8951-EFF1050EE8BA}" name="Column Name" dataDxfId="111"/>
     <tableColumn id="2" xr3:uid="{A366B0C9-9B04-FB4C-9556-9395DEDE1406}" name="Data Type" dataDxfId="110"/>
@@ -1521,8 +2942,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{CFA109B7-7455-B84B-AC8F-09B88446060E}" name="Table15" displayName="Table15" ref="A154:F156" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <autoFilter ref="A154:F156" xr:uid="{CFA109B7-7455-B84B-AC8F-09B88446060E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{CFA109B7-7455-B84B-AC8F-09B88446060E}" name="Table15" displayName="Table15" ref="A156:F158" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+  <autoFilter ref="A156:F158" xr:uid="{CFA109B7-7455-B84B-AC8F-09B88446060E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BC3876B7-25FC-CD43-861A-1F644C94A751}" name="Column Name" dataDxfId="103"/>
     <tableColumn id="2" xr3:uid="{CCC28DB7-1D74-A847-9072-C34D3FD3BE9E}" name="Data Type" dataDxfId="102"/>
@@ -1536,8 +2957,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D1CCCCF9-FA11-FB4B-AAEA-25888D6AE2B6}" name="Table16" displayName="Table16" ref="A159:F165" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="A159:F165" xr:uid="{D1CCCCF9-FA11-FB4B-AAEA-25888D6AE2B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D1CCCCF9-FA11-FB4B-AAEA-25888D6AE2B6}" name="Table16" displayName="Table16" ref="A161:F167" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="A161:F167" xr:uid="{D1CCCCF9-FA11-FB4B-AAEA-25888D6AE2B6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{49A04010-70A2-0743-9ECB-E275FC7A8D39}" name="Column Name" dataDxfId="95"/>
     <tableColumn id="2" xr3:uid="{DEA156B1-2644-6A49-AB7B-C582AC0BF93A}" name="Data Type" dataDxfId="94"/>
@@ -1551,8 +2972,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CC1042CF-664E-3543-AD15-6EBFEB7032F8}" name="Table17" displayName="Table17" ref="A148:F151" totalsRowShown="0" headerRowDxfId="80" dataDxfId="81">
-  <autoFilter ref="A148:F151" xr:uid="{CC1042CF-664E-3543-AD15-6EBFEB7032F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CC1042CF-664E-3543-AD15-6EBFEB7032F8}" name="Table17" displayName="Table17" ref="A150:F153" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A150:F153" xr:uid="{CC1042CF-664E-3543-AD15-6EBFEB7032F8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{092DE569-D483-494E-9AC2-67B7E177097D}" name="Column Name" dataDxfId="87"/>
     <tableColumn id="2" xr3:uid="{CD3D6B7E-1FC6-2242-8B3D-913F898A0F66}" name="Data Type" dataDxfId="86"/>
@@ -1566,8 +2987,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{BC43D0CE-3406-6743-8BC1-CF3D3D3BA81B}" name="Table18" displayName="Table18" ref="A82:F95" totalsRowShown="0" headerRowDxfId="72" dataDxfId="73">
-  <autoFilter ref="A82:F95" xr:uid="{BC43D0CE-3406-6743-8BC1-CF3D3D3BA81B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{BC43D0CE-3406-6743-8BC1-CF3D3D3BA81B}" name="Table18" displayName="Table18" ref="A84:F97" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="A84:F97" xr:uid="{BC43D0CE-3406-6743-8BC1-CF3D3D3BA81B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E46E1420-D365-CF4D-892D-23624B91D550}" name="Column Name" dataDxfId="79"/>
     <tableColumn id="2" xr3:uid="{B65AAB0E-6763-0C4A-A76C-C26D912295A5}" name="Data Type" dataDxfId="78"/>
@@ -1581,8 +3002,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2C211F3B-960C-004C-AF8F-90B7EAAE812E}" name="Table19" displayName="Table19" ref="A30:F41" totalsRowShown="0" headerRowDxfId="64" dataDxfId="65">
-  <autoFilter ref="A30:F41" xr:uid="{2C211F3B-960C-004C-AF8F-90B7EAAE812E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2C211F3B-960C-004C-AF8F-90B7EAAE812E}" name="Table19" displayName="Table19" ref="A32:F43" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A32:F43" xr:uid="{2C211F3B-960C-004C-AF8F-90B7EAAE812E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EC42F4CA-14DA-D34C-AE6E-306745A457E4}" name="Column Name" dataDxfId="71"/>
     <tableColumn id="2" xr3:uid="{36C3FAF3-BD3D-EC4F-AB21-743D157240E5}" name="Data Type" dataDxfId="70"/>
@@ -1596,8 +3017,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6FF46D31-79E8-B144-A47E-B24B5196FE26}" name="Table20" displayName="Table20" ref="A7:F12" totalsRowShown="0" headerRowDxfId="56" dataDxfId="57">
-  <autoFilter ref="A7:F12" xr:uid="{6FF46D31-79E8-B144-A47E-B24B5196FE26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6FF46D31-79E8-B144-A47E-B24B5196FE26}" name="Table20" displayName="Table20" ref="A9:F14" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A9:F14" xr:uid="{6FF46D31-79E8-B144-A47E-B24B5196FE26}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{059FF333-05A6-A042-A597-CF39B3873B51}" name="Column Name" dataDxfId="63"/>
     <tableColumn id="2" xr3:uid="{A018D478-9614-AE4E-9A14-A1F6072E45AE}" name="Data Type" dataDxfId="62"/>
@@ -1927,351 +3348,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DADDF-BC13-604B-A34C-8A9FAA34E473}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="50" zoomScaleNormal="63" zoomScaleSheetLayoutView="25" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>6001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="4">
-        <v>45667.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45667.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="2">
         <v>3001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
@@ -2280,18 +3666,18 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
@@ -2300,494 +3686,494 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F33" s="2">
         <v>5001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F43" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F47" s="2">
         <v>4001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>14</v>
@@ -2796,38 +4182,38 @@
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>14</v>
@@ -2836,216 +4222,216 @@
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F57" s="2">
         <v>4001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
@@ -3054,432 +4440,432 @@
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F66" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F68" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F81" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F85" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>26</v>
@@ -3488,38 +4874,38 @@
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>26</v>
@@ -3528,256 +4914,256 @@
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F93" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="97" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F97" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="101" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F101" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>26</v>
@@ -3786,256 +5172,256 @@
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="112" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F112" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="116" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F114" s="2">
-        <v>7001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" s="3">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F116" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>14</v>
@@ -4044,58 +5430,58 @@
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F117" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="4">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F118" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F119" s="4">
-        <v>45665.583333333336</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F119" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>63</v>
@@ -4104,434 +5490,434 @@
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" s="3">
+        <v>45665.583333333336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="124" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F124" s="3">
         <v>45664.4375</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="125" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F123" s="2">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F125" s="2">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="131" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F129" s="2">
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F130" s="4">
-        <v>45666.625</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F131" s="2">
-        <v>7001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" s="3">
+        <v>45666.625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F132" s="2">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F133" s="2">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F134" s="2">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F135" s="4">
-        <v>45665.583333333336</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F137" s="3">
+        <v>45665.583333333336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F138" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+    <row r="139" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F139" s="4">
         <v>6001</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+    <row r="140" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+    <row r="144" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="2">
-        <v>7001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143" s="2">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>14</v>
@@ -4540,371 +5926,431 @@
         <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F144" s="2">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="2">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+    <row r="147" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+    <row r="151" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+    <row r="152" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+    <row r="153" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F153" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+    <row r="157" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+    <row r="158" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F158" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+    <row r="162" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+    <row r="163" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F161" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F162" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F163" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F164" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F165" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+    <row r="166" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+    <row r="167" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F167" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="168" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="30" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="82" max="5" man="1"/>
+  </rowBreaks>
   <tableParts count="16">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
